--- a/Inn-flow/target/classes/WorkBooks/ReadData.xlsx
+++ b/Inn-flow/target/classes/WorkBooks/ReadData.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\softe\eclipse-workspace\Inn-flow\Inn-flow\src\main\resources\WorkBooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD529ABE-DB82-4CD8-B809-7F483F4F3293}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B77C031-9267-441E-96D7-E29449B0FB63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13320" xr2:uid="{18C2A936-53C5-4640-9821-8B9F4BBD379E}"/>
   </bookViews>
   <sheets>
-    <sheet name="LogIn" sheetId="3" r:id="rId1"/>
+    <sheet name="LogInPage" sheetId="3" r:id="rId1"/>
     <sheet name="Credentials" sheetId="2" r:id="rId2"/>
     <sheet name="EHID" sheetId="1" r:id="rId3"/>
   </sheets>
